--- a/Resources/Clean/Clean_YOY_MonthlyVisitors.xlsx
+++ b/Resources/Clean/Clean_YOY_MonthlyVisitors.xlsx
@@ -417,10 +417,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D2">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E2">
         <v>662187</v>
@@ -432,10 +432,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D3">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E3">
         <v>671480</v>
@@ -447,10 +447,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D4">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E4">
         <v>992657</v>
@@ -462,10 +462,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D5">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E5">
         <v>1266715</v>
@@ -477,10 +477,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D6">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E6">
         <v>1637021</v>
@@ -492,10 +492,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D7">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E7">
         <v>2061602</v>
@@ -507,10 +507,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D8">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E8">
         <v>2585434</v>
@@ -522,10 +522,10 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D9">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E9">
         <v>2707533</v>
@@ -537,10 +537,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D10">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E10">
         <v>1970603</v>
@@ -552,10 +552,10 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D11">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E11">
         <v>1346373</v>
@@ -567,10 +567,10 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D12">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E12">
         <v>936351</v>
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D13">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E13">
         <v>760783</v>
@@ -599,10 +599,10 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D14">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E14">
         <v>789501</v>
@@ -614,10 +614,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D15">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E15">
         <v>808170</v>
@@ -629,10 +629,10 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D16">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E16">
         <v>1064691</v>
@@ -644,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D17">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E17">
         <v>1195308</v>
@@ -659,10 +659,10 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D18">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E18">
         <v>1608871</v>
@@ -674,10 +674,10 @@
         <v>6</v>
       </c>
       <c r="C19">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D19">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E19">
         <v>2065430</v>
@@ -689,10 +689,10 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D20">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E20">
         <v>2374889</v>
@@ -704,10 +704,10 @@
         <v>8</v>
       </c>
       <c r="C21">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D21">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E21">
         <v>2393532</v>
@@ -719,10 +719,10 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D22">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E22">
         <v>1871944</v>
@@ -734,10 +734,10 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D23">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E23">
         <v>1379187</v>
@@ -749,10 +749,10 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D24">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E24">
         <v>993563</v>
@@ -764,10 +764,10 @@
         <v>12</v>
       </c>
       <c r="C25">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D25">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E25">
         <v>958072</v>
@@ -781,10 +781,10 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D26">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E26">
         <v>605921</v>
@@ -796,10 +796,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D27">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E27">
         <v>670046</v>
@@ -811,10 +811,10 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D28">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E28">
         <v>1155917</v>
@@ -826,10 +826,10 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D29">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E29">
         <v>1290567</v>
@@ -841,10 +841,10 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D30">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E30">
         <v>1582516</v>
@@ -856,10 +856,10 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D31">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E31">
         <v>2081930</v>
@@ -871,10 +871,10 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D32">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E32">
         <v>2624976</v>
@@ -886,10 +886,10 @@
         <v>8</v>
       </c>
       <c r="C33">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D33">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E33">
         <v>2805117</v>
@@ -901,10 +901,10 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D34">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E34">
         <v>2014533</v>
@@ -916,10 +916,10 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D35">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E35">
         <v>1474949</v>
@@ -931,10 +931,10 @@
         <v>11</v>
       </c>
       <c r="C36">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D36">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E36">
         <v>989485</v>
@@ -946,10 +946,10 @@
         <v>12</v>
       </c>
       <c r="C37">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D37">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E37">
         <v>833321</v>
@@ -963,10 +963,10 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D38">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E38">
         <v>732397</v>
@@ -978,10 +978,10 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D39">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E39">
         <v>819186</v>
@@ -993,10 +993,10 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D40">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E40">
         <v>550521</v>
@@ -1008,10 +1008,10 @@
         <v>4</v>
       </c>
       <c r="C41">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D41">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E41">
         <v>66384</v>
@@ -1023,10 +1023,10 @@
         <v>5</v>
       </c>
       <c r="C42">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D42">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E42">
         <v>150094</v>
@@ -1038,10 +1038,10 @@
         <v>6</v>
       </c>
       <c r="C43">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D43">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E43">
         <v>1046707</v>
@@ -1053,10 +1053,10 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D44">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E44">
         <v>2185952</v>
@@ -1068,10 +1068,10 @@
         <v>8</v>
       </c>
       <c r="C45">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D45">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E45">
         <v>2309622</v>
@@ -1083,10 +1083,10 @@
         <v>9</v>
       </c>
       <c r="C46">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D46">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E46">
         <v>1065666</v>
@@ -1098,10 +1098,10 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D47">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E47">
         <v>1091669</v>
@@ -1113,10 +1113,10 @@
         <v>11</v>
       </c>
       <c r="C48">
-        <v>520.1487986999999</v>
+        <v>520.1211399</v>
       </c>
       <c r="D48">
-        <v>-1564.8241421</v>
+        <v>-1564.8575556</v>
       </c>
       <c r="E48">
         <v>1034168</v>

--- a/Resources/Clean/Clean_YOY_MonthlyVisitors.xlsx
+++ b/Resources/Clean/Clean_YOY_MonthlyVisitors.xlsx
@@ -417,10 +417,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D2">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E2">
         <v>662187</v>
@@ -432,10 +432,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D3">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E3">
         <v>671480</v>
@@ -447,10 +447,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D4">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E4">
         <v>992657</v>
@@ -462,10 +462,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D5">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E5">
         <v>1266715</v>
@@ -477,10 +477,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D6">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E6">
         <v>1637021</v>
@@ -492,10 +492,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D7">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E7">
         <v>2061602</v>
@@ -507,10 +507,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D8">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E8">
         <v>2585434</v>
@@ -522,10 +522,10 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D9">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E9">
         <v>2707533</v>
@@ -537,10 +537,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D10">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E10">
         <v>1970603</v>
@@ -552,10 +552,10 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D11">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E11">
         <v>1346373</v>
@@ -567,10 +567,10 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D12">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E12">
         <v>936351</v>
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D13">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E13">
         <v>760783</v>
@@ -599,10 +599,10 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D14">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E14">
         <v>789501</v>
@@ -614,10 +614,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D15">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E15">
         <v>808170</v>
@@ -629,10 +629,10 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D16">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E16">
         <v>1064691</v>
@@ -644,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D17">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E17">
         <v>1195308</v>
@@ -659,10 +659,10 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D18">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E18">
         <v>1608871</v>
@@ -674,10 +674,10 @@
         <v>6</v>
       </c>
       <c r="C19">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D19">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E19">
         <v>2065430</v>
@@ -689,10 +689,10 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D20">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E20">
         <v>2374889</v>
@@ -704,10 +704,10 @@
         <v>8</v>
       </c>
       <c r="C21">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D21">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E21">
         <v>2393532</v>
@@ -719,10 +719,10 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D22">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E22">
         <v>1871944</v>
@@ -734,10 +734,10 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D23">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E23">
         <v>1379187</v>
@@ -749,10 +749,10 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D24">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E24">
         <v>993563</v>
@@ -764,10 +764,10 @@
         <v>12</v>
       </c>
       <c r="C25">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D25">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E25">
         <v>958072</v>
@@ -781,10 +781,10 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D26">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E26">
         <v>605921</v>
@@ -796,10 +796,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D27">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E27">
         <v>670046</v>
@@ -811,10 +811,10 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D28">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E28">
         <v>1155917</v>
@@ -826,10 +826,10 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D29">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E29">
         <v>1290567</v>
@@ -841,10 +841,10 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D30">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E30">
         <v>1582516</v>
@@ -856,10 +856,10 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D31">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E31">
         <v>2081930</v>
@@ -871,10 +871,10 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D32">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E32">
         <v>2624976</v>
@@ -886,10 +886,10 @@
         <v>8</v>
       </c>
       <c r="C33">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D33">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E33">
         <v>2805117</v>
@@ -901,10 +901,10 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D34">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E34">
         <v>2014533</v>
@@ -916,10 +916,10 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D35">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E35">
         <v>1474949</v>
@@ -931,10 +931,10 @@
         <v>11</v>
       </c>
       <c r="C36">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D36">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E36">
         <v>989485</v>
@@ -946,10 +946,10 @@
         <v>12</v>
       </c>
       <c r="C37">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D37">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E37">
         <v>833321</v>
@@ -963,10 +963,10 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D38">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E38">
         <v>732397</v>
@@ -978,10 +978,10 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D39">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E39">
         <v>819186</v>
@@ -993,10 +993,10 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D40">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E40">
         <v>550521</v>
@@ -1008,10 +1008,10 @@
         <v>4</v>
       </c>
       <c r="C41">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D41">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E41">
         <v>66384</v>
@@ -1023,10 +1023,10 @@
         <v>5</v>
       </c>
       <c r="C42">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D42">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E42">
         <v>150094</v>
@@ -1038,10 +1038,10 @@
         <v>6</v>
       </c>
       <c r="C43">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D43">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E43">
         <v>1046707</v>
@@ -1053,10 +1053,10 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D44">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E44">
         <v>2185952</v>
@@ -1068,10 +1068,10 @@
         <v>8</v>
       </c>
       <c r="C45">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D45">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E45">
         <v>2309622</v>
@@ -1083,10 +1083,10 @@
         <v>9</v>
       </c>
       <c r="C46">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D46">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E46">
         <v>1065666</v>
@@ -1098,10 +1098,10 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D47">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E47">
         <v>1091669</v>
@@ -1113,10 +1113,10 @@
         <v>11</v>
       </c>
       <c r="C48">
-        <v>520.1211399</v>
+        <v>520.1487986999999</v>
       </c>
       <c r="D48">
-        <v>-1564.8575556</v>
+        <v>-1564.8241421</v>
       </c>
       <c r="E48">
         <v>1034168</v>
